--- a/results/mp/logistic/corona/confidence/42/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.15/avg_0.003_scores.xlsx
@@ -46,9 +46,6 @@
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,9 +67,18 @@
     <t>no</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
@@ -79,58 +88,55 @@
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>relief</t>
   </si>
   <si>
     <t>save</t>
@@ -139,43 +145,37 @@
     <t>join</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>safety</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,16 +623,16 @@
         <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5526315789473685</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4021164021164021</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3158914728682171</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C9">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D9">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8172323759791122</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L9">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M9">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1342281879194631</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.79375</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,68 +1023,116 @@
         <v>314</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K11">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.006445375443119562</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0.17</v>
+      </c>
+      <c r="F12">
+        <v>0.83</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3083</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
         <v>0.7830188679245284</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>83</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>83</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.78125</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>28</v>
-      </c>
-    </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.003882741215298</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0.41</v>
+      </c>
+      <c r="F13">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5131</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7734375</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1179,16 +1227,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,15 +1248,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
         <v>35</v>
@@ -1226,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7021276595744681</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.696969696969697</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,12 +1404,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>0.6571428571428571</v>
@@ -1387,7 +1435,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>0.6279069767441861</v>
@@ -1413,16 +1461,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6147058823529412</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>0.6</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5846153846153846</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5531914893617021</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5523012552301255</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L30">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.55</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5491525423728814</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L32">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4157303370786517</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.3725490196078431</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,12 +1716,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>0.3205128205128205</v>
@@ -1695,58 +1743,6 @@
       </c>
       <c r="Q36">
         <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37">
-        <v>0.01752921535893155</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>23</v>
-      </c>
-      <c r="N37">
-        <v>0.91</v>
-      </c>
-      <c r="O37">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38">
-        <v>0.00440426518312471</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>33</v>
-      </c>
-      <c r="N38">
-        <v>0.58</v>
-      </c>
-      <c r="O38">
-        <v>0.42</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>4295</v>
       </c>
     </row>
   </sheetData>
